--- a/biology/Zoologie/Cephonodes_banksi/Cephonodes_banksi.xlsx
+++ b/biology/Zoologie/Cephonodes_banksi/Cephonodes_banksi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephonodes  banksi est une espèce d'hétérocères de la famille des Sphingidae, sous famille des Macroglossinae tribu des Dilophonotini et du genre Cephonodes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La face supérieure de l'abdomen est tricolore (partie antérieure vert foncé, partie médiane rouge-orange avec une bande de crème et la partie postérieure est brun-orange/noir). La face supérieure de l'abdomen a une ligne blanche transversale importante précédant une bande orange rougeâtre. La partie arrière de l'abdomen (postérieur à la bande rouge-orange) est brun-orange. La tête, partie antérieure du thorax, et les pattes antérieures  sont orange vif. Les femelles sont plus grandes et plus foncées que les mâles.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue aux Philippines et à Sulawesi.
 </t>
@@ -573,11 +589,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Cephonodes  banksi a été décrite par le naturaliste américain Benjamin Preston Clark en 1923.  
-Liste des sous-espèces
-Cephonodes banksi banksi Clark,1923 (Philippines)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephonodes  banksi a été décrite par le naturaliste américain Benjamin Preston Clark en 1923.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cephonodes_banksi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephonodes_banksi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cephonodes banksi banksi Clark,1923 (Philippines)
 Cephonodes banksi johani Cadiou, 1999 (Sulawesi)</t>
         </is>
       </c>
